--- a/批量导入模板/期中体育教师考核模板.xlsx
+++ b/批量导入模板/期中体育教师考核模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myGithub\ynyzjs\teacher_system\批量导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F73038F-F2D1-43AD-8FE9-8EF3A1E6EDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB27FB3-AB86-4588-AD06-9219F6BA3E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="2775" windowWidth="16485" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L2" sqref="L2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>172.4</v>
       </c>
       <c r="H2" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1">
         <v>216.4</v>
@@ -636,7 +636,7 @@
         <v>7.6466431095406362</v>
       </c>
       <c r="L2" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>151.6</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>197.6</v>
@@ -671,7 +671,7 @@
         <v>6.9823321554770317</v>
       </c>
       <c r="L3" s="1">
-        <v>2.9400000000000004</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>27</v>
@@ -700,7 +700,7 @@
         <v>162.4</v>
       </c>
       <c r="H4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1">
         <v>206.4</v>
@@ -709,7 +709,7 @@
         <v>7.2932862190812724</v>
       </c>
       <c r="L4" s="1">
-        <v>2.9699999999999998</v>
+        <v>9</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>28</v>
@@ -738,7 +738,7 @@
         <v>155.20000000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
         <v>208.20000000000002</v>
@@ -747,7 +747,7 @@
         <v>7.3568904593639584</v>
       </c>
       <c r="L5" s="1">
-        <v>2.9699999999999998</v>
+        <v>9</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>29</v>
@@ -776,7 +776,7 @@
         <v>164.4</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1">
         <v>214.4</v>
@@ -785,7 +785,7 @@
         <v>7.5759717314487629</v>
       </c>
       <c r="L6" s="1">
-        <v>2.9400000000000004</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>30</v>
@@ -814,7 +814,7 @@
         <v>160</v>
       </c>
       <c r="H7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1">
         <v>210</v>
@@ -823,7 +823,7 @@
         <v>7.4204946996466425</v>
       </c>
       <c r="L7" s="1">
-        <v>2.9400000000000004</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>150.80000000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1">
         <v>200.8</v>
@@ -858,7 +858,7 @@
         <v>7.0954063604240281</v>
       </c>
       <c r="L8" s="1">
-        <v>2.9699999999999998</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>174.4</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1">
         <v>226.4</v>
@@ -893,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -919,7 +919,7 @@
         <v>15.600000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
         <v>79.599999999999994</v>
@@ -928,7 +928,7 @@
         <v>2.8127208480565367</v>
       </c>
       <c r="L10" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>15.600000000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1">
         <v>87.1</v>
@@ -963,7 +963,7 @@
         <v>3.0777385159010597</v>
       </c>
       <c r="L11" s="1">
-        <v>2.9699999999999998</v>
+        <v>9</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>27</v>
@@ -992,7 +992,7 @@
         <v>15.600000000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1">
         <v>78.599999999999994</v>
@@ -1001,7 +1001,7 @@
         <v>2.7773851590106005</v>
       </c>
       <c r="L12" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>28</v>
@@ -1030,7 +1030,7 @@
         <v>15.600000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1">
         <v>70.599999999999994</v>
@@ -1039,7 +1039,7 @@
         <v>2.4946996466431091</v>
       </c>
       <c r="L13" s="1">
-        <v>2.9400000000000004</v>
+        <v>9</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>29</v>
@@ -1068,7 +1068,7 @@
         <v>15.600000000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1">
         <v>70.599999999999994</v>
@@ -1077,7 +1077,7 @@
         <v>2.4946996466431091</v>
       </c>
       <c r="L14" s="1">
-        <v>2.9400000000000004</v>
+        <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>30</v>
@@ -1106,7 +1106,7 @@
         <v>15.600000000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1">
         <v>71.599999999999994</v>
@@ -1115,7 +1115,7 @@
         <v>2.5300353356890457</v>
       </c>
       <c r="L15" s="1">
-        <v>2.9699999999999998</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>2.6007067137809186</v>
       </c>
       <c r="L16" s="1">
-        <v>2.9699999999999998</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>31.25</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1">
         <v>79.25</v>
@@ -1185,7 +1185,7 @@
         <v>2.8003533568904593</v>
       </c>
       <c r="L17" s="1">
-        <v>2.9699999999999998</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
